--- a/NT_AirPollution.Web/App_Data/Payment/Template/結清證明.xlsx
+++ b/NT_AirPollution.Web/App_Data/Payment/Template/結清證明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\Alvin\NT_AirPollution\NT_AirPollution.Web\App_Data\Payment\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC0903-B99B-450E-9F03-9016FE53107A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0C873-4879-47B7-8900-B533D653B24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="結清證明" sheetId="60" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -326,11 +326,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,89 +338,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -430,36 +388,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -830,729 +818,717 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="18" width="4.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="18" width="4.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="40.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="14"/>
-    </row>
-    <row r="2" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="48"/>
-    </row>
-    <row r="4" spans="1:20" s="10" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="46"/>
+    </row>
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="22"/>
-    </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22"/>
-    </row>
-    <row r="6" spans="1:20" s="10" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:20" ht="35.1" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="35.1" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="39"/>
+    </row>
+    <row r="9" spans="1:20" s="8" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="29" t="s">
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="29" t="s">
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="29" t="s">
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="29" t="s">
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="29" t="s">
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="29" t="s">
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="30" t="s">
+      <c r="R9" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:20" s="8" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29" t="s">
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="29" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="29" t="s">
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="29" t="s">
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="29" t="s">
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="29" t="s">
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="30" t="s">
+      <c r="R10" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:20" s="8" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="29" t="s">
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="29" t="s">
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="29" t="s">
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="29" t="s">
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="29" t="s">
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="29" t="s">
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="30" t="s">
+      <c r="R11" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:20" s="8" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="29" t="s">
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="29" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="29" t="s">
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="29" t="s">
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="29" t="s">
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="29" t="s">
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R12" s="30" t="s">
+      <c r="R12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="27"/>
-    </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="8">
-        <f t="shared" ref="B14:G14" si="0">B9</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>仟</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>佰</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v>拾</v>
-      </c>
-      <c r="H14" s="8">
-        <f>H9</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="29" t="s">
+    <row r="13" spans="1:20" s="8" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="39"/>
+    </row>
+    <row r="14" spans="1:20" s="8" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="8">
-        <f>J9</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="29" t="s">
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="8">
-        <f>L9</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="29" t="s">
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="8">
-        <f>N9</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="29" t="s">
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="8">
-        <f>P9</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="29" t="s">
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="30" t="s">
+      <c r="R14" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-    </row>
-    <row r="16" spans="1:20" ht="16.2" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="35"/>
+    <row r="15" spans="1:20" s="8" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" ht="16.149999999999999" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="35"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="35"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="35"/>
-    </row>
-    <row r="20" spans="1:20" ht="19.8">
-      <c r="A20" s="36" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20"/>
+    </row>
+    <row r="20" spans="1:20" ht="19.5">
+      <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="39"/>
-    </row>
-    <row r="21" spans="1:20" ht="19.8">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="39"/>
-    </row>
-    <row r="22" spans="1:20" ht="19.8">
-      <c r="A22" s="36" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
+    </row>
+    <row r="21" spans="1:20" ht="19.5">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
+    </row>
+    <row r="22" spans="1:20" ht="19.5">
+      <c r="A22" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="39"/>
-    </row>
-    <row r="23" spans="1:20" ht="19.8">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="39"/>
-    </row>
-    <row r="24" spans="1:20" ht="19.8">
-      <c r="A24" s="36" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23"/>
+    </row>
+    <row r="23" spans="1:20" ht="19.5">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
+    </row>
+    <row r="24" spans="1:20" ht="19.5">
+      <c r="A24" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="39"/>
-    </row>
-    <row r="25" spans="1:20" ht="19.8">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="39"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="23"/>
+    </row>
+    <row r="25" spans="1:20" ht="19.5">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="23"/>
       <c r="S25" t="s">
         <v>0</v>
       </c>
@@ -1560,85 +1536,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.8">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53" t="s">
+    <row r="26" spans="1:20" ht="19.5">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="54"/>
-    </row>
-    <row r="27" spans="1:20" ht="19.8">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="39"/>
-    </row>
-    <row r="28" spans="1:20" ht="19.8">
-      <c r="A28" s="49" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23"/>
+    </row>
+    <row r="27" spans="1:20" ht="19.5">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="23"/>
+    </row>
+    <row r="28" spans="1:20" ht="19.5">
+      <c r="A28" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="41" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="41" t="s">
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="51" t="s">
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="Q28" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R28" s="45"/>
-    </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="22.2">
-      <c r="O29" s="7" t="s">
+      <c r="Q28" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" s="27"/>
+    </row>
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="21">
+      <c r="O29" s="6" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B3:R3"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A5:B5"/>
@@ -1649,11 +1630,6 @@
     <mergeCell ref="A13:R13"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="M28:O28"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B3:R3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.45" bottom="0.41" header="0.48" footer="0.5"/>
